--- a/PPU/LAB_CS/data.xlsx
+++ b/PPU/LAB_CS/data.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D70D0-1E61-4404-B89E-B9E3F7135887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>n</t>
   </si>
@@ -69,31 +78,40 @@
     <t>Ik2</t>
   </si>
   <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>pA</t>
-  </si>
-  <si>
-    <t>kpd</t>
-  </si>
-  <si>
-    <t>kpd(k)</t>
-  </si>
-  <si>
     <t>Un</t>
   </si>
   <si>
-    <t>0.7</t>
+    <t>Ek_0</t>
   </si>
   <si>
-    <t>Ek_0</t>
+    <t>PA,Вт</t>
+  </si>
+  <si>
+    <t>KPD</t>
+  </si>
+  <si>
+    <t>KPDk</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Qн</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rk</t>
+  </si>
+  <si>
+    <t>rvn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -136,14 +154,8889 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Простая схема</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ik</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> = f(n)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77AF-4BFD-8CC2-2F5B88F29964}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="359922560"/>
+        <c:axId val="471782656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="359922560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471782656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471782656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359922560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Сложная схема </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Un = f(X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>св)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$19:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AF3-4562-8A9F-D8CE7383AAC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="562856560"/>
+        <c:axId val="363227024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="562856560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363227024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="363227024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562856560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Простая схема </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>б</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> = f(n)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B62F-4252-B52B-7DC639825E83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="482534192"/>
+        <c:axId val="471783072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="482534192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471783072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471783072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482534192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Простая схема </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ik1 = f(n)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F463-46FA-9D99-28C2554C5D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="522683824"/>
+        <c:axId val="475335024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="522683824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475335024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475335024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522683824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Простая схема </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Uk = f(n)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E717-4019-8077-CAD69E65BA77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="522702224"/>
+        <c:axId val="366280048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="522702224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366280048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366280048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522702224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сложная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> схема </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Ik = f(X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>св)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$19:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B403-4933-8872-273D44B63DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="480436336"/>
+        <c:axId val="366281296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="480436336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366281296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366281296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480436336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Сложная схема </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ib = f(X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>св)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$19:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9DF-4DC2-A90D-3B9631717722}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="480432336"/>
+        <c:axId val="359536800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="480432336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359536800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="359536800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480432336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Сложная схема </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ik1 = f(X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>св)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$19:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7890-4476-9883-675D91485671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="528687792"/>
+        <c:axId val="479012864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="528687792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479012864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="479012864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528687792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Сложная схема </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ik2 = f(X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>св)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$19:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBD8-41E4-B9A1-1FA2F6C7E923}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="572834928"/>
+        <c:axId val="358330144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="572834928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358330144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="358330144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572834928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Сложная схема </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Uk = f(X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>св)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$19:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A352-43BC-B651-4BD7294DF19E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="562836560"/>
+        <c:axId val="561753200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="562836560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561753200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561753200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562836560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>566961</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>260389</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39761</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655A7CC6-9BE5-43F6-B37F-118D19EB891E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>274677</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>577261</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C96E9A-A76C-4810-A308-BDBACFA139F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>566961</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>260389</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35D0886-68D3-47E3-9001-0F74860A43EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>269914</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>572498</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106435</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970A5BFB-F9F6-41E8-BDF6-E4128D821D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6644</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>126261</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147748</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C754B17-09BE-4DDD-84A4-1304F7101159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12182</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131799</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C81D58-91CD-428E-8AB2-C3CD72A1CD06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200468</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508369</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136672</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B46F3E8-0799-4C65-846F-F81B84BD26AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167241</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>475142</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136671</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD8FA34-495E-463C-9759-C08D57E6DEA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12182</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>18385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131799</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>125596</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C63C3F-0942-4361-90A8-7925A86DE3F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222619</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>18385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>530520</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>125596</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33193E58-D3AA-4029-86E5-E8DE05FE4951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,9 +9074,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +9109,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +9161,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,14 +9353,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -464,7 +9395,7 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -484,10 +9415,11 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>350</v>
+        <v>350000</v>
       </c>
       <c r="I2">
-        <v>43</v>
+        <f>43/1000000</f>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -529,6 +9461,9 @@
       <c r="E4">
         <v>8.5</v>
       </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -546,6 +9481,10 @@
       <c r="E5">
         <v>8.5</v>
       </c>
+      <c r="H5">
+        <f>2*3.14*I2*H2</f>
+        <v>94.51400000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -608,33 +9547,177 @@
       <c r="A10">
         <v>1</v>
       </c>
+      <c r="B10">
+        <f>(B2/1000) * $K$2</f>
+        <v>0.72</v>
+      </c>
+      <c r="C10">
+        <f>1/2 *E2 * (B2*1.57 / 1000)</f>
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="D10">
+        <f>(B2*1.57 / 1000)</f>
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="E10">
+        <f>C10/B10</f>
+        <v>0.98125000000000007</v>
+      </c>
+      <c r="F10">
+        <f>E2/(B2/1000)</f>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="G10">
+        <f>F10/($J$2*$H$5)</f>
+        <v>1.1756047898841557E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
+      <c r="B11">
+        <f t="shared" ref="B11:B15" si="0">(B3/1000) * $K$2</f>
+        <v>0.72</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C15" si="1">1/2 *E3 * (B3*1.57 / 1000)</f>
+        <v>0.67117500000000008</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D15" si="2">(B3*1.57 / 1000)</f>
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E15" si="3">C11/B11</f>
+        <v>0.93218750000000017</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F15" si="4">E3/(B3/1000)</f>
+        <v>105.55555555555556</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G15" si="5">F11/($J$2*$H$5)</f>
+        <v>1.116824550389948E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.60052500000000009</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0.83406250000000015</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>94.444444444444443</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>9.9926407140153231E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.60052500000000009</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.83406250000000015</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>94.444444444444443</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>9.9926407140153231E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.49455000000000005</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0.68687500000000012</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>8.2292335291890908E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.45922500000000005</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>0.63781250000000012</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>72.222222222222229</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>7.6414311342470126E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -654,25 +9737,37 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -685,8 +9780,8 @@
       <c r="D19">
         <v>8.5</v>
       </c>
-      <c r="E19" t="s">
-        <v>22</v>
+      <c r="E19">
+        <v>0.7</v>
       </c>
       <c r="F19">
         <v>3.2000000000000001E-2</v>
@@ -694,8 +9789,44 @@
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <f>(B19/1000) * $K$2</f>
+        <v>0.72</v>
+      </c>
+      <c r="I19">
+        <f>(F19*(D19/1000))*0.5</f>
+        <v>1.3600000000000003E-4</v>
+      </c>
+      <c r="J19">
+        <f>I19*L19</f>
+        <v>8.3097784455213021E-5</v>
+      </c>
+      <c r="K19">
+        <f>I19/H19</f>
+        <v>1.8888888888888894E-4</v>
+      </c>
+      <c r="L19">
+        <f>P19/N19</f>
+        <v>0.61101312099421323</v>
+      </c>
+      <c r="M19">
+        <f>(G19*G19)/(2*$H$5*I19)</f>
+        <v>38.898687900578672</v>
+      </c>
+      <c r="N19">
+        <f>$H$5/M19</f>
+        <v>2.4297477653120012</v>
+      </c>
+      <c r="O19">
+        <f>$H$5/$J$2</f>
+        <v>0.94514000000000009</v>
+      </c>
+      <c r="P19">
+        <f>N19-O19</f>
+        <v>1.4846077653120011</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.5</v>
       </c>
@@ -717,8 +9848,44 @@
       <c r="G20">
         <v>2.5</v>
       </c>
+      <c r="H20">
+        <f>(B20/1000) * $K$2</f>
+        <v>0.72</v>
+      </c>
+      <c r="I20">
+        <f>(F20*(D20/1000))*0.5</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:J24" si="6">I20*L20</f>
+        <v>2.1669361152845078E-2</v>
+      </c>
+      <c r="K20">
+        <f>I20/H20</f>
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L23" si="7">P20/N20</f>
+        <v>0.98497096149295815</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M24" si="8">(G20*G20)/(2*$H$5*I20)</f>
+        <v>1.5029038507041765</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N24" si="9">$H$5/M20</f>
+        <v>62.887589219840009</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O24" si="10">$H$5/$J$2</f>
+        <v>0.94514000000000009</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:P24" si="11">N20-O20</f>
+        <v>61.942449219840007</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -740,8 +9907,44 @@
       <c r="G21">
         <v>2.5</v>
       </c>
+      <c r="H21">
+        <f>(B21/1000) * $K$2</f>
+        <v>0.72</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I20:I24" si="12">(F21*(D21/1000))*0.5</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>2.9693611528450814E-3</v>
+      </c>
+      <c r="K21">
+        <f>I21/H21</f>
+        <v>4.5833333333333334E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>0.89980640995305494</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>10.019359004694509</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="9"/>
+        <v>9.4331383829760025</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="10"/>
+        <v>0.94514000000000009</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="11"/>
+        <v>8.4879983829760022</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.5</v>
       </c>
@@ -763,8 +9966,44 @@
       <c r="G22">
         <v>2.5</v>
       </c>
+      <c r="H22">
+        <f>(B22/1000) * $K$2</f>
+        <v>0.72</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="12"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>6.6936115284508125E-4</v>
+      </c>
+      <c r="K22">
+        <f>I22/H22</f>
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>0.66936115284508124</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>33.063884715491881</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>2.8585267827200007</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="10"/>
+        <v>0.94514000000000009</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="11"/>
+        <v>1.9133867827200006</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -786,8 +10025,44 @@
       <c r="G23">
         <v>2.5</v>
       </c>
+      <c r="H23">
+        <f>(B23/1000) * $K$2</f>
+        <v>0.72</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="12"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>2.6936115284508123E-4</v>
+      </c>
+      <c r="K23">
+        <f>I23/H23</f>
+        <v>8.333333333333335E-4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>0.44893525474180201</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>55.106474525819799</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="9"/>
+        <v>1.7151160696320005</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="10"/>
+        <v>0.94514000000000009</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="11"/>
+        <v>0.76997606963200038</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -808,15 +10083,52 @@
       </c>
       <c r="G24">
         <v>2</v>
+      </c>
+      <c r="H24">
+        <f>(B24/1000) * $K$2</f>
+        <v>0.72</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="12"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>3.8391137820851959E-5</v>
+      </c>
+      <c r="K24">
+        <f>I24/H24</f>
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="L24">
+        <f>P24/N24</f>
+        <v>0.15356455128340782</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>84.643544871659216</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>1.1166120245000002</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>0.94514000000000009</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="11"/>
+        <v>0.1714720245000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -828,7 +10140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
